--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>LIVRABLES</t>
   </si>
@@ -167,19 +167,13 @@
     <t>La grille d'auto-évaluation a été remplie et est disponible dans le repo.</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>?? Angular</t>
-  </si>
-  <si>
     <t>YES - to be impoved</t>
+  </si>
+  <si>
+    <t>~~ "et le résultat attendu dans l'interface." =&gt; chez nous le test est automatisé</t>
   </si>
 </sst>
 </file>
@@ -229,12 +223,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,7 +266,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -280,6 +280,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
@@ -638,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -748,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -803,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -836,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -901,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -923,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,8 +1010,8 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>51</v>
+      <c r="D37" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1054,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1075,8 +1076,8 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>47</v>
+      <c r="D43" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1134,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>LIVRABLES</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>YES - to be impoved</t>
-  </si>
-  <si>
-    <t>~~ "et le résultat attendu dans l'interface." =&gt; chez nous le test est automatisé</t>
   </si>
 </sst>
 </file>
@@ -639,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1076,8 +1073,8 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>49</v>
+      <c r="D43" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="A14:D14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>LIVRABLES</t>
   </si>
@@ -171,6 +171,11 @@
   </si>
   <si>
     <t>YES - to be impoved</t>
+  </si>
+  <si>
+    <t>YES
+Our test procedure checks the stats endpoint described in the REST API
+YES</t>
   </si>
 </sst>
 </file>
@@ -263,7 +268,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -278,6 +283,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
@@ -636,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1124,15 +1132,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="D50" t="s">
-        <v>47</v>
+      <c r="D50" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>LIVRABLES</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>YES - to be impoved</t>
   </si>
   <si>
     <t>YES
@@ -225,18 +222,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,10 +273,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
@@ -644,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1015,8 +1006,8 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>48</v>
+      <c r="D37" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,8 +1130,8 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>49</v>
+      <c r="D50" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
